--- a/2021-03-22/实习生周报表 .xlsx
+++ b/2021-03-22/实习生周报表 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\et\Desktop\周报\2021-03-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FB904C-1548-42B4-B04F-ED2EE701FA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534AEAE-1BB8-45DC-A019-2B0A318401DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>实习生周报表</t>
   </si>
@@ -80,7 +80,235 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1. 内容</t>
+      <t xml:space="preserve"> 内容: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">为开发区块链创新应用平台的后台管理界面,加强对vue-elements-admin学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成果:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://github.com/TianZC-zju/vue-note/blob/main/vue.md</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+内容:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">为配合公司前端架构转型, 加快学习vue- options
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成果:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/TianZC-zju/vue-note/blob/main/vue.md
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">内容: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">工业互联网-区块链创新培训平台 修改活动, 查看活动详情功能开发完善
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">成果: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成相应开发.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">内容: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 内容: 为开发区块链创新应用平台的后台管理界面,加强对vue-elements-admin学习: el-table等组件学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成果:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/TianZC-zju/vue-note/blob/main/vue.md
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">为配合公司前端架构转型, 加快学习vue- el  data, 生命钩子,等原理学车
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成果:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://github.com/TianZC-zju/vue-note/blob/main/vue.md</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田炙川</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容</t>
     </r>
     <r>
       <rPr>
@@ -113,29 +341,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">完成签入职协议, 大致了解公司的行政制度
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">:2.5工时
-2. </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -190,18 +396,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  工时: 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">工时
-3. </t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -266,28 +472,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">自己接下来的开发任务
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工时:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1.5工时
 </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -438,6 +622,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,12 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,34 +917,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61" style="12" customWidth="1"/>
+    <col min="3" max="3" width="61" style="8" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -777,7 +963,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -794,8 +980,8 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>13</v>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -809,30 +995,38 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="131" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -842,16 +1036,16 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
